--- a/sputnik/personal/ee/103ee.xlsx
+++ b/sputnik/personal/ee/103ee.xlsx
@@ -16,23 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -45,7 +36,19 @@
     <t>22.18.2018</t>
   </si>
   <si>
-    <t>показания сняты электриком</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
   </si>
 </sst>
 </file>
@@ -55,7 +58,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,42 +82,21 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -137,39 +119,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -191,48 +145,13 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -540,417 +459,292 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>43225</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="5">
-        <v>11126</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>43261</v>
+        <v>12392</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>43569</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>11326</v>
+        <v>12592</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:D9" si="0">SUM(C3,-C2)</f>
+        <f t="shared" ref="D3:D4" si="0">SUM(C3,-C2)</f>
         <v>200</v>
       </c>
       <c r="E3" s="6">
-        <v>4.29</v>
-      </c>
-      <c r="F3" s="20">
-        <f t="shared" ref="F3:F8" si="1">PRODUCT(D3,E3)</f>
-        <v>858</v>
+        <v>4.57</v>
+      </c>
+      <c r="F3" s="9">
+        <f t="shared" ref="F3:F4" si="1">PRODUCT(D3,E3)</f>
+        <v>914</v>
+      </c>
+      <c r="G3" s="11">
+        <v>914</v>
+      </c>
+      <c r="H3" s="11">
+        <v>914</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>43274</v>
+      <c r="A4" s="10">
+        <v>43639</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5">
-        <v>11526</v>
+      <c r="C4" s="3">
+        <v>12792</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="E4" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="F4" s="20">
+        <v>4.57</v>
+      </c>
+      <c r="F4" s="9">
         <f t="shared" si="1"/>
-        <v>900</v>
+        <v>914</v>
+      </c>
+      <c r="G4" s="11">
+        <v>914</v>
+      </c>
+      <c r="H4" s="11">
+        <v>914</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>43386</v>
+      <c r="A5" s="10">
+        <v>43728</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="5">
-        <v>11726</v>
+      <c r="C5" s="3">
+        <v>13142</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <f>SUM(C5,-C4)</f>
+        <v>350</v>
       </c>
       <c r="E5" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="F5" s="20">
-        <f t="shared" si="1"/>
-        <v>900</v>
+        <v>4.49</v>
+      </c>
+      <c r="F5" s="9">
+        <f>PRODUCT(D5,E5)</f>
+        <v>1571.5</v>
+      </c>
+      <c r="G5" s="11">
+        <v>1571.5</v>
+      </c>
+      <c r="H5" s="11">
+        <v>1571.5</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
+      <c r="A6" s="10">
+        <v>43817</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="5">
-        <v>12392</v>
+      <c r="C6" s="3">
+        <v>13642</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>666</v>
+        <f>SUM(C6,-C5)</f>
+        <v>500</v>
       </c>
       <c r="E6" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="F6" s="20">
-        <f t="shared" si="1"/>
-        <v>2997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21">
-        <v>43569</v>
+        <v>4.49</v>
+      </c>
+      <c r="F6" s="9">
+        <f>PRODUCT(D6,E6)</f>
+        <v>2245</v>
+      </c>
+      <c r="G6" s="11">
+        <v>2245</v>
+      </c>
+      <c r="H6" s="11">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>43850</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="3">
-        <v>12592</v>
+        <v>13942</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <f>SUM(C7,-C6)</f>
+        <v>300</v>
       </c>
       <c r="E7" s="6">
-        <v>4.57</v>
-      </c>
-      <c r="F7" s="20">
-        <f t="shared" si="1"/>
-        <v>914</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21">
-        <v>43639</v>
+        <v>4.49</v>
+      </c>
+      <c r="F7" s="9">
+        <f>PRODUCT(D7,E7)</f>
+        <v>1347</v>
+      </c>
+      <c r="G7" s="11">
+        <v>1347</v>
+      </c>
+      <c r="H7" s="11">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>43878</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>12792</v>
+        <v>14242</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <f>SUM(C8,-C7)</f>
+        <v>300</v>
       </c>
       <c r="E8" s="6">
-        <v>4.57</v>
-      </c>
-      <c r="F8" s="20">
-        <f t="shared" si="1"/>
-        <v>914</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21">
-        <v>43728</v>
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="9">
+        <f>PRODUCT(D8,E8)</f>
+        <v>1347</v>
+      </c>
+      <c r="G8" s="11">
+        <v>1347</v>
+      </c>
+      <c r="H8" s="11">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>43916</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="3">
-        <v>13142</v>
+        <v>14542</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>350</v>
+        <f>SUM(C9,-C8)</f>
+        <v>300</v>
       </c>
       <c r="E9" s="6">
         <v>4.49</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="9">
         <f>PRODUCT(D9,E9)</f>
-        <v>1571.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21">
-        <v>43817</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>13642</v>
-      </c>
-      <c r="D10" s="3">
-        <f>SUM(C10,-C9)</f>
-        <v>500</v>
-      </c>
-      <c r="E10" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F10" s="20">
-        <f>PRODUCT(D10,E10)</f>
-        <v>2245</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>2</v>
+        <v>1347</v>
+      </c>
+      <c r="G9" s="11">
+        <v>1347</v>
+      </c>
+      <c r="H9" s="11">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="11">
+        <f>SUM(G3:G9)</f>
+        <v>9685.5</v>
+      </c>
+      <c r="H10" s="11">
+        <f>SUM(H3:H9)</f>
+        <v>9685.5</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="21">
-        <v>43850</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
-        <v>13942</v>
-      </c>
-      <c r="D11" s="3">
-        <f>SUM(C11,-C10)</f>
-        <v>300</v>
-      </c>
-      <c r="E11" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F11" s="20">
-        <f>PRODUCT(D11,E11)</f>
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="21">
-        <v>43876</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>14242</v>
-      </c>
-      <c r="D12" s="3">
-        <f>SUM(C12,-C11)</f>
-        <v>300</v>
-      </c>
-      <c r="E12" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F12" s="20">
-        <f>PRODUCT(D12,E12)</f>
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="22">
-        <v>43876</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="23">
-        <v>14144</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="21">
-        <v>43878</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3">
-        <v>14542</v>
-      </c>
-      <c r="D14" s="3">
-        <f>SUM(C14,-C12)</f>
-        <v>300</v>
-      </c>
-      <c r="E14" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F14" s="20">
-        <f>PRODUCT(D14,E14)</f>
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="16"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/103ee.xlsx
+++ b/sputnik/personal/ee/103ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -459,10 +459,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -719,32 +719,60 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="6" t="s">
-        <v>10</v>
+      <c r="A10" s="10">
+        <v>43941</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>14842</v>
+      </c>
+      <c r="D10" s="3">
+        <f>SUM(C10,-C9)</f>
+        <v>300</v>
+      </c>
+      <c r="E10" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="9">
+        <f>PRODUCT(D10,E10)</f>
+        <v>1347</v>
       </c>
       <c r="G10" s="11">
-        <f>SUM(G3:G9)</f>
-        <v>9685.5</v>
+        <v>1347</v>
       </c>
       <c r="H10" s="11">
-        <f>SUM(H3:H9)</f>
-        <v>9685.5</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="4"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="11">
+        <f>SUM(G3:G10)</f>
+        <v>11032.5</v>
+      </c>
+      <c r="H11" s="11">
+        <f>SUM(H3:H10)</f>
+        <v>11032.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/103ee.xlsx
+++ b/sputnik/personal/ee/103ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -459,10 +459,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -589,14 +589,14 @@
         <v>13142</v>
       </c>
       <c r="D5" s="3">
-        <f>SUM(C5,-C4)</f>
+        <f t="shared" ref="D5:D11" si="2">SUM(C5,-C4)</f>
         <v>350</v>
       </c>
       <c r="E5" s="6">
         <v>4.49</v>
       </c>
       <c r="F5" s="9">
-        <f>PRODUCT(D5,E5)</f>
+        <f t="shared" ref="F5:F10" si="3">PRODUCT(D5,E5)</f>
         <v>1571.5</v>
       </c>
       <c r="G5" s="11">
@@ -617,14 +617,14 @@
         <v>13642</v>
       </c>
       <c r="D6" s="3">
-        <f>SUM(C6,-C5)</f>
+        <f t="shared" si="2"/>
         <v>500</v>
       </c>
       <c r="E6" s="6">
         <v>4.49</v>
       </c>
       <c r="F6" s="9">
-        <f>PRODUCT(D6,E6)</f>
+        <f t="shared" si="3"/>
         <v>2245</v>
       </c>
       <c r="G6" s="11">
@@ -645,14 +645,14 @@
         <v>13942</v>
       </c>
       <c r="D7" s="3">
-        <f>SUM(C7,-C6)</f>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
       <c r="E7" s="6">
         <v>4.49</v>
       </c>
       <c r="F7" s="9">
-        <f>PRODUCT(D7,E7)</f>
+        <f t="shared" si="3"/>
         <v>1347</v>
       </c>
       <c r="G7" s="11">
@@ -673,14 +673,14 @@
         <v>14242</v>
       </c>
       <c r="D8" s="3">
-        <f>SUM(C8,-C7)</f>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
       <c r="E8" s="6">
         <v>4.49</v>
       </c>
       <c r="F8" s="9">
-        <f>PRODUCT(D8,E8)</f>
+        <f t="shared" si="3"/>
         <v>1347</v>
       </c>
       <c r="G8" s="11">
@@ -701,14 +701,14 @@
         <v>14542</v>
       </c>
       <c r="D9" s="3">
-        <f>SUM(C9,-C8)</f>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
       <c r="E9" s="6">
         <v>4.49</v>
       </c>
       <c r="F9" s="9">
-        <f>PRODUCT(D9,E9)</f>
+        <f t="shared" si="3"/>
         <v>1347</v>
       </c>
       <c r="G9" s="11">
@@ -729,14 +729,14 @@
         <v>14842</v>
       </c>
       <c r="D10" s="3">
-        <f>SUM(C10,-C9)</f>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
       <c r="E10" s="6">
         <v>4.49</v>
       </c>
       <c r="F10" s="9">
-        <f>PRODUCT(D10,E10)</f>
+        <f t="shared" si="3"/>
         <v>1347</v>
       </c>
       <c r="G10" s="11">
@@ -747,32 +747,60 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="6" t="s">
-        <v>10</v>
+      <c r="A11" s="10">
+        <v>43973</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>15042</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="E11" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" ref="F11" si="4">PRODUCT(D11,E11)</f>
+        <v>898</v>
       </c>
       <c r="G11" s="11">
-        <f>SUM(G3:G10)</f>
-        <v>11032.5</v>
+        <v>898</v>
       </c>
       <c r="H11" s="11">
-        <f>SUM(H3:H10)</f>
-        <v>11032.5</v>
+        <v>898</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="11">
+        <f>SUM(G3:G11)</f>
+        <v>11930.5</v>
+      </c>
+      <c r="H12" s="11">
+        <f>SUM(H3:H11)</f>
+        <v>11930.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/103ee.xlsx
+++ b/sputnik/personal/ee/103ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -459,10 +459,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -775,32 +775,60 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6" t="s">
-        <v>10</v>
+      <c r="A12" s="10">
+        <v>44007</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>15242</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" ref="D12" si="5">SUM(C12,-C11)</f>
+        <v>200</v>
+      </c>
+      <c r="E12" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="9">
+        <f t="shared" ref="F12" si="6">PRODUCT(D12,E12)</f>
+        <v>898</v>
       </c>
       <c r="G12" s="11">
-        <f>SUM(G3:G11)</f>
-        <v>11930.5</v>
+        <v>898</v>
       </c>
       <c r="H12" s="11">
-        <f>SUM(H3:H11)</f>
-        <v>11930.5</v>
+        <v>898</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="11">
+        <f>SUM(G3:G11)</f>
+        <v>11930.5</v>
+      </c>
+      <c r="H13" s="11">
+        <f>SUM(H3:H11)</f>
+        <v>11930.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/103ee.xlsx
+++ b/sputnik/personal/ee/103ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -459,10 +459,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -803,32 +803,60 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="6" t="s">
-        <v>10</v>
+      <c r="A13" s="10">
+        <v>44082</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>15642</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" ref="D13" si="7">SUM(C13,-C12)</f>
+        <v>400</v>
+      </c>
+      <c r="E13" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" ref="F13" si="8">PRODUCT(D13,E13)</f>
+        <v>1884</v>
       </c>
       <c r="G13" s="11">
-        <f>SUM(G3:G11)</f>
-        <v>11930.5</v>
+        <v>1884</v>
       </c>
       <c r="H13" s="11">
-        <f>SUM(H3:H11)</f>
-        <v>11930.5</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="11">
+        <f>SUM(G3:G13)</f>
+        <v>14712.5</v>
+      </c>
+      <c r="H14" s="11">
+        <f>SUM(H3:H13)</f>
+        <v>14712.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/103ee.xlsx
+++ b/sputnik/personal/ee/103ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -31,9 +31,6 @@
   </si>
   <si>
     <t xml:space="preserve">кВт/ч к оплате </t>
-  </si>
-  <si>
-    <t>22.18.2018</t>
   </si>
   <si>
     <t>День/ ночь</t>
@@ -459,10 +456,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -485,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>3</v>
@@ -497,18 +494,18 @@
         <v>1</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
+      <c r="A2" s="4">
+        <v>43817</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -831,32 +828,60 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6" t="s">
-        <v>10</v>
+      <c r="A14" s="10">
+        <v>44183</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>16042</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" ref="D14" si="9">SUM(C14,-C13)</f>
+        <v>400</v>
+      </c>
+      <c r="E14" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" ref="F14" si="10">PRODUCT(D14,E14)</f>
+        <v>1884</v>
       </c>
       <c r="G14" s="11">
-        <f>SUM(G3:G13)</f>
-        <v>14712.5</v>
+        <v>1884</v>
       </c>
       <c r="H14" s="11">
-        <f>SUM(H3:H13)</f>
-        <v>14712.5</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="11">
+        <f>SUM(G3:G13)</f>
+        <v>14712.5</v>
+      </c>
+      <c r="H15" s="11">
+        <f>SUM(H3:H13)</f>
+        <v>14712.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/103ee.xlsx
+++ b/sputnik/personal/ee/103ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -456,10 +456,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -856,32 +856,60 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="6" t="s">
-        <v>9</v>
+      <c r="A15" s="10">
+        <v>44214</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
+        <v>16242</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" ref="D15" si="11">SUM(C15,-C14)</f>
+        <v>200</v>
+      </c>
+      <c r="E15" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F15" s="9">
+        <f t="shared" ref="F15" si="12">PRODUCT(D15,E15)</f>
+        <v>942</v>
       </c>
       <c r="G15" s="11">
-        <f>SUM(G3:G13)</f>
-        <v>14712.5</v>
+        <v>942</v>
       </c>
       <c r="H15" s="11">
-        <f>SUM(H3:H13)</f>
-        <v>14712.5</v>
+        <v>942</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="11">
+        <f>SUM(G3:G15)</f>
+        <v>17538.5</v>
+      </c>
+      <c r="H16" s="11">
+        <f>SUM(H3:H15)</f>
+        <v>17538.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/103ee.xlsx
+++ b/sputnik/personal/ee/103ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -456,10 +456,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -884,32 +884,116 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="6" t="s">
+      <c r="A16" s="10">
+        <v>44244</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>16442</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" ref="D16" si="13">SUM(C16,-C15)</f>
+        <v>200</v>
+      </c>
+      <c r="E16" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="9">
+        <f t="shared" ref="F16:F17" si="14">PRODUCT(D16,E16)</f>
+        <v>942</v>
+      </c>
+      <c r="G16" s="11">
+        <v>942</v>
+      </c>
+      <c r="H16" s="11">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>44278</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>16842</v>
+      </c>
+      <c r="D17" s="3">
+        <f>SUM(C17,-C16)</f>
+        <v>400</v>
+      </c>
+      <c r="E17" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F17" s="9">
+        <f t="shared" si="14"/>
+        <v>1884</v>
+      </c>
+      <c r="G17" s="11">
+        <v>1884</v>
+      </c>
+      <c r="H17" s="11">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>44306</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>17142</v>
+      </c>
+      <c r="D18" s="3">
+        <f>SUM(C18,-C17)</f>
+        <v>300</v>
+      </c>
+      <c r="E18" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="9">
+        <f t="shared" ref="F18" si="15">PRODUCT(D18,E18)</f>
+        <v>1413</v>
+      </c>
+      <c r="G18" s="11">
+        <v>1413</v>
+      </c>
+      <c r="H18" s="11">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G19" s="11">
         <f>SUM(G3:G15)</f>
         <v>17538.5</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H19" s="11">
         <f>SUM(H3:H15)</f>
         <v>17538.5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/103ee.xlsx
+++ b/sputnik/personal/ee/103ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -456,10 +456,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -968,32 +968,60 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="6" t="s">
-        <v>9</v>
+      <c r="A19" s="10">
+        <v>44340</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>17409</v>
+      </c>
+      <c r="D19" s="3">
+        <f>SUM(C19,-C18)</f>
+        <v>267</v>
+      </c>
+      <c r="E19" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F19" s="9">
+        <f t="shared" ref="F19" si="16">PRODUCT(D19,E19)</f>
+        <v>1257.57</v>
       </c>
       <c r="G19" s="11">
-        <f>SUM(G3:G15)</f>
-        <v>17538.5</v>
+        <v>1257.57</v>
       </c>
       <c r="H19" s="11">
-        <f>SUM(H3:H15)</f>
-        <v>17538.5</v>
+        <v>1257.57</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
+      <c r="A20" s="4"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="11">
+        <f>SUM(G3:G15)</f>
+        <v>17538.5</v>
+      </c>
+      <c r="H20" s="11">
+        <f>SUM(H3:H15)</f>
+        <v>17538.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/103ee.xlsx
+++ b/sputnik/personal/ee/103ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -456,10 +456,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -996,32 +996,60 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="6" t="s">
-        <v>9</v>
+      <c r="A20" s="10">
+        <v>44368</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>17709</v>
+      </c>
+      <c r="D20" s="3">
+        <f>SUM(C20,-C19)</f>
+        <v>300</v>
+      </c>
+      <c r="E20" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="9">
+        <f t="shared" ref="F20" si="17">PRODUCT(D20,E20)</f>
+        <v>1413</v>
       </c>
       <c r="G20" s="11">
-        <f>SUM(G3:G15)</f>
-        <v>17538.5</v>
+        <v>1413</v>
       </c>
       <c r="H20" s="11">
-        <f>SUM(H3:H15)</f>
-        <v>17538.5</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+      <c r="A21" s="4"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="11">
+        <f>SUM(G3:G15)</f>
+        <v>17538.5</v>
+      </c>
+      <c r="H21" s="11">
+        <f>SUM(H3:H15)</f>
+        <v>17538.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/103ee.xlsx
+++ b/sputnik/personal/ee/103ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -456,10 +456,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1024,32 +1024,63 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="6" t="s">
-        <v>9</v>
+      <c r="A21" s="10">
+        <v>44403</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>18009</v>
+      </c>
+      <c r="D21" s="3">
+        <f>SUM(C21,-C20)</f>
+        <v>300</v>
+      </c>
+      <c r="E21" s="6">
+        <v>4.96</v>
+      </c>
+      <c r="F21" s="9">
+        <f t="shared" ref="F21" si="18">PRODUCT(D21,E21)</f>
+        <v>1488</v>
       </c>
       <c r="G21" s="11">
-        <f>SUM(G3:G15)</f>
-        <v>17538.5</v>
+        <v>1488</v>
       </c>
       <c r="H21" s="11">
-        <f>SUM(H3:H15)</f>
-        <v>17538.5</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
+      <c r="A22" s="4"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="11">
+        <f>SUM(G3:G21)</f>
+        <v>25936.07</v>
+      </c>
+      <c r="H22" s="11">
+        <f>SUM(H3:H21)</f>
+        <v>25861.07</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11">
+        <f>SUM(H22,-G22)</f>
+        <v>-75</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/103ee.xlsx
+++ b/sputnik/personal/ee/103ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -456,7 +456,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
@@ -1052,34 +1052,62 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="6" t="s">
-        <v>9</v>
+      <c r="A22" s="10">
+        <v>44435</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>18309</v>
+      </c>
+      <c r="D22" s="3">
+        <f>SUM(C22,-C21)</f>
+        <v>300</v>
+      </c>
+      <c r="E22" s="6">
+        <v>4.96</v>
+      </c>
+      <c r="F22" s="9">
+        <f t="shared" ref="F22" si="19">PRODUCT(D22,E22)</f>
+        <v>1488</v>
       </c>
       <c r="G22" s="11">
-        <f>SUM(G3:G21)</f>
-        <v>25936.07</v>
+        <v>1488</v>
       </c>
       <c r="H22" s="11">
-        <f>SUM(H3:H21)</f>
-        <v>25861.07</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
+      <c r="A23" s="4"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="11"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="11">
+        <f>SUM(G3:G22)</f>
+        <v>27424.07</v>
+      </c>
       <c r="H23" s="11">
-        <f>SUM(H22,-G22)</f>
-        <v>-75</v>
+        <f>SUM(H3:H22)</f>
+        <v>27274.07</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11">
+        <f>SUM(H23,-G23)</f>
+        <v>-150</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/103ee.xlsx
+++ b/sputnik/personal/ee/103ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -456,10 +456,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="H23" sqref="H2:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -922,7 +922,7 @@
         <v>16842</v>
       </c>
       <c r="D17" s="3">
-        <f>SUM(C17,-C16)</f>
+        <f t="shared" ref="D17:D23" si="15">SUM(C17,-C16)</f>
         <v>400</v>
       </c>
       <c r="E17" s="6">
@@ -950,14 +950,14 @@
         <v>17142</v>
       </c>
       <c r="D18" s="3">
-        <f>SUM(C18,-C17)</f>
+        <f t="shared" si="15"/>
         <v>300</v>
       </c>
       <c r="E18" s="6">
         <v>4.71</v>
       </c>
       <c r="F18" s="9">
-        <f t="shared" ref="F18" si="15">PRODUCT(D18,E18)</f>
+        <f t="shared" ref="F18" si="16">PRODUCT(D18,E18)</f>
         <v>1413</v>
       </c>
       <c r="G18" s="11">
@@ -978,14 +978,14 @@
         <v>17409</v>
       </c>
       <c r="D19" s="3">
-        <f>SUM(C19,-C18)</f>
+        <f t="shared" si="15"/>
         <v>267</v>
       </c>
       <c r="E19" s="6">
         <v>4.71</v>
       </c>
       <c r="F19" s="9">
-        <f t="shared" ref="F19" si="16">PRODUCT(D19,E19)</f>
+        <f t="shared" ref="F19" si="17">PRODUCT(D19,E19)</f>
         <v>1257.57</v>
       </c>
       <c r="G19" s="11">
@@ -1006,14 +1006,14 @@
         <v>17709</v>
       </c>
       <c r="D20" s="3">
-        <f>SUM(C20,-C19)</f>
+        <f t="shared" si="15"/>
         <v>300</v>
       </c>
       <c r="E20" s="6">
         <v>4.71</v>
       </c>
       <c r="F20" s="9">
-        <f t="shared" ref="F20" si="17">PRODUCT(D20,E20)</f>
+        <f t="shared" ref="F20" si="18">PRODUCT(D20,E20)</f>
         <v>1413</v>
       </c>
       <c r="G20" s="11">
@@ -1034,14 +1034,14 @@
         <v>18009</v>
       </c>
       <c r="D21" s="3">
-        <f>SUM(C21,-C20)</f>
+        <f t="shared" si="15"/>
         <v>300</v>
       </c>
       <c r="E21" s="6">
         <v>4.96</v>
       </c>
       <c r="F21" s="9">
-        <f t="shared" ref="F21" si="18">PRODUCT(D21,E21)</f>
+        <f t="shared" ref="F21" si="19">PRODUCT(D21,E21)</f>
         <v>1488</v>
       </c>
       <c r="G21" s="11">
@@ -1062,14 +1062,14 @@
         <v>18309</v>
       </c>
       <c r="D22" s="3">
-        <f>SUM(C22,-C21)</f>
+        <f t="shared" si="15"/>
         <v>300</v>
       </c>
       <c r="E22" s="6">
         <v>4.96</v>
       </c>
       <c r="F22" s="9">
-        <f t="shared" ref="F22" si="19">PRODUCT(D22,E22)</f>
+        <f t="shared" ref="F22" si="20">PRODUCT(D22,E22)</f>
         <v>1488</v>
       </c>
       <c r="G22" s="11">
@@ -1080,34 +1080,62 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="6" t="s">
-        <v>9</v>
+      <c r="A23" s="10">
+        <v>44455</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3">
+        <v>18609</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="15"/>
+        <v>300</v>
+      </c>
+      <c r="E23" s="6">
+        <v>4.96</v>
+      </c>
+      <c r="F23" s="9">
+        <f t="shared" ref="F23" si="21">PRODUCT(D23,E23)</f>
+        <v>1488</v>
       </c>
       <c r="G23" s="11">
-        <f>SUM(G3:G22)</f>
-        <v>27424.07</v>
+        <v>1488</v>
       </c>
       <c r="H23" s="11">
-        <f>SUM(H3:H22)</f>
-        <v>27274.07</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
+      <c r="A24" s="4"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="11"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="11">
+        <f>SUM(G3:G23)</f>
+        <v>28912.07</v>
+      </c>
       <c r="H24" s="11">
-        <f>SUM(H23,-G23)</f>
-        <v>-150</v>
+        <f>SUM(H3:H23)</f>
+        <v>28687.07</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11">
+        <f>SUM(H24,-G24)</f>
+        <v>-225</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/103ee.xlsx
+++ b/sputnik/personal/ee/103ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -456,10 +456,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H2:H23"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1108,34 +1108,116 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="6" t="s">
+      <c r="A24" s="10">
+        <v>44501</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>18909</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" ref="D24" si="22">SUM(C24,-C23)</f>
+        <v>300</v>
+      </c>
+      <c r="E24" s="6">
+        <v>4.96</v>
+      </c>
+      <c r="F24" s="9">
+        <f t="shared" ref="F24:F26" si="23">PRODUCT(D24,E24)</f>
+        <v>1488</v>
+      </c>
+      <c r="G24" s="11">
+        <v>1488</v>
+      </c>
+      <c r="H24" s="11">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>44501</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
+        <v>4.96</v>
+      </c>
+      <c r="F25" s="9">
+        <v>0</v>
+      </c>
+      <c r="G25" s="11">
+        <v>0</v>
+      </c>
+      <c r="H25" s="11">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>44524</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3">
+        <v>19209</v>
+      </c>
+      <c r="D26" s="3">
+        <f>SUM(C26,-C24)</f>
+        <v>300</v>
+      </c>
+      <c r="E26" s="6">
+        <v>4.96</v>
+      </c>
+      <c r="F26" s="9">
+        <f t="shared" si="23"/>
+        <v>1488</v>
+      </c>
+      <c r="G26" s="11">
+        <v>1488</v>
+      </c>
+      <c r="H26" s="11">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G24" s="11">
-        <f>SUM(G3:G23)</f>
-        <v>28912.07</v>
-      </c>
-      <c r="H24" s="11">
-        <f>SUM(H3:H23)</f>
-        <v>28687.07</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11">
-        <f>SUM(H24,-G24)</f>
-        <v>-225</v>
+      <c r="G27" s="11">
+        <f>SUM(G3:G25)</f>
+        <v>30400.07</v>
+      </c>
+      <c r="H27" s="11">
+        <f>SUM(H3:H25)</f>
+        <v>30400.07</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11">
+        <f>SUM(H27,-G27)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
